--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amar\Automation\MAG4.0\MerchantsTotalView\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="6330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="credentials" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,16 +20,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>amartanwar</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>http://otbapsrv:206</t>
+  </si>
+  <si>
+    <t>Merchants-tvqa</t>
+  </si>
+  <si>
+    <t>Odessauser</t>
+  </si>
+  <si>
+    <t>Samsung-1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,16 +58,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -58,12 +89,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,7 +174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -176,7 +226,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -370,31 +420,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amar\Automation\MyFirstAutomation\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
+    <sheet name="AssetProfile" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Company Name</t>
   </si>
@@ -44,13 +49,79 @@
   </si>
   <si>
     <t>Samsung-1234</t>
+  </si>
+  <si>
+    <t>UnitNumber</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>UsageCondition</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>Factor Category</t>
+  </si>
+  <si>
+    <t>ContractName-Number</t>
+  </si>
+  <si>
+    <t>DivName-DivNumber</t>
+  </si>
+  <si>
+    <t>SubdivName-subdivNumber</t>
+  </si>
+  <si>
+    <t>Location Code</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Auto-1</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>am-10088</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Division1-Division1</t>
+  </si>
+  <si>
+    <t>SDiv01-SDiv01</t>
+  </si>
+  <si>
+    <t>Lc-00252</t>
+  </si>
+  <si>
+    <t>7010-EPF</t>
+  </si>
+  <si>
+    <t>Asset Product1-Test</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>0017-0017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,12 +179,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -174,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -226,7 +298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -420,28 +492,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -455,7 +527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -467,6 +539,103 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -84,9 +84,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Auto-1</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>Division1-Division1</t>
-  </si>
-  <si>
-    <t>SDiv01-SDiv01</t>
-  </si>
-  <si>
     <t>Lc-00252</t>
   </si>
   <si>
@@ -114,7 +105,16 @@
     <t>Car</t>
   </si>
   <si>
-    <t>0017-0017</t>
+    <t>ddd - ddd</t>
+  </si>
+  <si>
+    <t>sss - sss</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>Auto-13</t>
   </si>
 </sst>
 </file>
@@ -179,13 +179,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +555,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,37 +608,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -114,7 +114,7 @@
     <t>aaa</t>
   </si>
   <si>
-    <t>Auto-13</t>
+    <t>Auto-19</t>
   </si>
 </sst>
 </file>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -114,7 +114,7 @@
     <t>aaa</t>
   </si>
   <si>
-    <t>Auto-19</t>
+    <t>Auto-23</t>
   </si>
 </sst>
 </file>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -114,7 +114,7 @@
     <t>aaa</t>
   </si>
   <si>
-    <t>Auto-23</t>
+    <t>Auto-32</t>
   </si>
 </sst>
 </file>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -15,7 +15,7 @@
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
     <sheet name="AssetProfile" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,7 +114,7 @@
     <t>aaa</t>
   </si>
   <si>
-    <t>Auto-32</t>
+    <t>Auto-57</t>
   </si>
 </sst>
 </file>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
     <sheet name="AssetProfile" sheetId="2" r:id="rId2"/>
+    <sheet name="ProductProfile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Company Name</t>
   </si>
@@ -114,7 +115,22 @@
     <t>aaa</t>
   </si>
   <si>
-    <t>Auto-57</t>
+    <t>ProductCode</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>ProductCategory</t>
+  </si>
+  <si>
+    <t>ProductFrequency</t>
+  </si>
+  <si>
+    <t>auto-2</t>
+  </si>
+  <si>
+    <t>Auto-61</t>
   </si>
 </sst>
 </file>
@@ -179,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -189,6 +205,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +625,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -639,6 +656,56 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="6330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="6330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
@@ -127,10 +127,10 @@
     <t>ProductFrequency</t>
   </si>
   <si>
-    <t>auto-2</t>
-  </si>
-  <si>
-    <t>Auto-61</t>
+    <t>Auto-64</t>
+  </si>
+  <si>
+    <t>auto-40</t>
   </si>
 </sst>
 </file>
@@ -571,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -625,7 +625,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,10 +696,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="6330" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17325" windowHeight="6330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
   <si>
     <t>Company Name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Merchants-tvqa</t>
   </si>
   <si>
-    <t>Odessauser</t>
-  </si>
-  <si>
     <t>Samsung-1234</t>
   </si>
   <si>
@@ -127,17 +124,158 @@
     <t>ProductFrequency</t>
   </si>
   <si>
-    <t>Auto-64</t>
-  </si>
-  <si>
-    <t>auto-40</t>
+    <t>auto-41</t>
+  </si>
+  <si>
+    <t>aishwarya.v</t>
+  </si>
+  <si>
+    <t>auto-42</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Auto-306</t>
+  </si>
+  <si>
+    <t>Auto-307</t>
+  </si>
+  <si>
+    <t>Auto-308</t>
+  </si>
+  <si>
+    <t>Auto-309</t>
+  </si>
+  <si>
+    <t>Auto-310</t>
+  </si>
+  <si>
+    <t>Auto-311</t>
+  </si>
+  <si>
+    <t>Auto-312</t>
+  </si>
+  <si>
+    <t>Auto-313</t>
+  </si>
+  <si>
+    <t>Auto-314</t>
+  </si>
+  <si>
+    <t>Auto-315</t>
+  </si>
+  <si>
+    <t>Auto-316</t>
+  </si>
+  <si>
+    <t>Auto-317</t>
+  </si>
+  <si>
+    <t>Auto-318</t>
+  </si>
+  <si>
+    <t>Auto-319</t>
+  </si>
+  <si>
+    <t>Auto-320</t>
+  </si>
+  <si>
+    <t>Auto-321</t>
+  </si>
+  <si>
+    <t>Auto-322</t>
+  </si>
+  <si>
+    <t>Auto-323</t>
+  </si>
+  <si>
+    <t>Auto-324</t>
+  </si>
+  <si>
+    <t>Auto-325</t>
+  </si>
+  <si>
+    <t>Auto-326</t>
+  </si>
+  <si>
+    <t>Auto-327</t>
+  </si>
+  <si>
+    <t>Auto-328</t>
+  </si>
+  <si>
+    <t>Auto-329</t>
+  </si>
+  <si>
+    <t>Auto-330</t>
+  </si>
+  <si>
+    <t>Auto-331</t>
+  </si>
+  <si>
+    <t>Auto-332</t>
+  </si>
+  <si>
+    <t>Auto-333</t>
+  </si>
+  <si>
+    <t>Auto-334</t>
+  </si>
+  <si>
+    <t>Auto-335</t>
+  </si>
+  <si>
+    <t>Auto-336</t>
+  </si>
+  <si>
+    <t>Auto-337</t>
+  </si>
+  <si>
+    <t>Auto-338</t>
+  </si>
+  <si>
+    <t>Auto-339</t>
+  </si>
+  <si>
+    <t>Auto-340</t>
+  </si>
+  <si>
+    <t>Auto-341</t>
+  </si>
+  <si>
+    <t>Auto-342</t>
+  </si>
+  <si>
+    <t>Auto-343</t>
+  </si>
+  <si>
+    <t>Auto-344</t>
+  </si>
+  <si>
+    <t>Auto-345</t>
+  </si>
+  <si>
+    <t>Auto-346</t>
+  </si>
+  <si>
+    <t>Auto-347</t>
+  </si>
+  <si>
+    <t>Auto-348</t>
+  </si>
+  <si>
+    <t>Auto-349</t>
+  </si>
+  <si>
+    <t>Auto-350</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +287,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -168,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,11 +337,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -206,8 +366,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,7 +687,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,31 +712,34 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,77 +752,510 @@
     <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
+      <c r="L3" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L22" s="3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31" s="3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="3">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L34" s="3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40" s="3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L44" s="3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L45" s="3">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" s="3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L50" s="3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L51" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -668,8 +1268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,16 +1282,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,7 +1299,7 @@
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>Company Name</t>
   </si>
@@ -136,139 +136,124 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Auto-306</t>
-  </si>
-  <si>
-    <t>Auto-307</t>
-  </si>
-  <si>
-    <t>Auto-308</t>
-  </si>
-  <si>
-    <t>Auto-309</t>
-  </si>
-  <si>
-    <t>Auto-310</t>
-  </si>
-  <si>
-    <t>Auto-311</t>
-  </si>
-  <si>
-    <t>Auto-312</t>
-  </si>
-  <si>
-    <t>Auto-313</t>
-  </si>
-  <si>
-    <t>Auto-314</t>
-  </si>
-  <si>
-    <t>Auto-315</t>
-  </si>
-  <si>
-    <t>Auto-316</t>
-  </si>
-  <si>
-    <t>Auto-317</t>
-  </si>
-  <si>
-    <t>Auto-318</t>
-  </si>
-  <si>
-    <t>Auto-319</t>
-  </si>
-  <si>
-    <t>Auto-320</t>
-  </si>
-  <si>
-    <t>Auto-321</t>
-  </si>
-  <si>
-    <t>Auto-322</t>
-  </si>
-  <si>
-    <t>Auto-323</t>
-  </si>
-  <si>
-    <t>Auto-324</t>
-  </si>
-  <si>
-    <t>Auto-325</t>
-  </si>
-  <si>
-    <t>Auto-326</t>
-  </si>
-  <si>
-    <t>Auto-327</t>
-  </si>
-  <si>
-    <t>Auto-328</t>
-  </si>
-  <si>
-    <t>Auto-329</t>
-  </si>
-  <si>
-    <t>Auto-330</t>
-  </si>
-  <si>
-    <t>Auto-331</t>
-  </si>
-  <si>
-    <t>Auto-332</t>
-  </si>
-  <si>
-    <t>Auto-333</t>
-  </si>
-  <si>
-    <t>Auto-334</t>
-  </si>
-  <si>
-    <t>Auto-335</t>
-  </si>
-  <si>
-    <t>Auto-336</t>
-  </si>
-  <si>
-    <t>Auto-337</t>
-  </si>
-  <si>
-    <t>Auto-338</t>
-  </si>
-  <si>
-    <t>Auto-339</t>
-  </si>
-  <si>
-    <t>Auto-340</t>
-  </si>
-  <si>
-    <t>Auto-341</t>
-  </si>
-  <si>
-    <t>Auto-342</t>
-  </si>
-  <si>
-    <t>Auto-343</t>
-  </si>
-  <si>
-    <t>Auto-344</t>
-  </si>
-  <si>
-    <t>Auto-345</t>
-  </si>
-  <si>
-    <t>Auto-346</t>
-  </si>
-  <si>
-    <t>Auto-347</t>
-  </si>
-  <si>
-    <t>Auto-348</t>
-  </si>
-  <si>
-    <t>Auto-349</t>
-  </si>
-  <si>
-    <t>Auto-350</t>
+    <t>Auto-441</t>
+  </si>
+  <si>
+    <t>Auto-442</t>
+  </si>
+  <si>
+    <t>Auto-443</t>
+  </si>
+  <si>
+    <t>Auto-444</t>
+  </si>
+  <si>
+    <t>Auto-445</t>
+  </si>
+  <si>
+    <t>Auto-446</t>
+  </si>
+  <si>
+    <t>Auto-447</t>
+  </si>
+  <si>
+    <t>Auto-448</t>
+  </si>
+  <si>
+    <t>Auto-449</t>
+  </si>
+  <si>
+    <t>Auto-450</t>
+  </si>
+  <si>
+    <t>Auto-451</t>
+  </si>
+  <si>
+    <t>Auto-452</t>
+  </si>
+  <si>
+    <t>Auto-453</t>
+  </si>
+  <si>
+    <t>Auto-454</t>
+  </si>
+  <si>
+    <t>Auto-455</t>
+  </si>
+  <si>
+    <t>Auto-456</t>
+  </si>
+  <si>
+    <t>Auto-457</t>
+  </si>
+  <si>
+    <t>Auto-458</t>
+  </si>
+  <si>
+    <t>Auto-459</t>
+  </si>
+  <si>
+    <t>Auto-501</t>
+  </si>
+  <si>
+    <t>Auto-502</t>
+  </si>
+  <si>
+    <t>Auto-503</t>
+  </si>
+  <si>
+    <t>Auto-504</t>
+  </si>
+  <si>
+    <t>Auto-505</t>
+  </si>
+  <si>
+    <t>Auto-506</t>
+  </si>
+  <si>
+    <t>Auto-507</t>
+  </si>
+  <si>
+    <t>Auto-508</t>
+  </si>
+  <si>
+    <t>Auto-509</t>
+  </si>
+  <si>
+    <t>Auto-510</t>
+  </si>
+  <si>
+    <t>Auto-511</t>
+  </si>
+  <si>
+    <t>Auto-512</t>
+  </si>
+  <si>
+    <t>Auto-513</t>
+  </si>
+  <si>
+    <t>Auto-514</t>
+  </si>
+  <si>
+    <t>Auto-515</t>
+  </si>
+  <si>
+    <t>Auto-516</t>
+  </si>
+  <si>
+    <t>Auto-517</t>
+  </si>
+  <si>
+    <t>Auto-518</t>
+  </si>
+  <si>
+    <t>Auto-519</t>
+  </si>
+  <si>
+    <t>Auto-520</t>
+  </si>
+  <si>
+    <t>Auto-521</t>
   </si>
 </sst>
 </file>
@@ -355,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -368,7 +353,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -736,10 +720,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +779,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>24</v>
@@ -833,7 +817,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
@@ -871,7 +855,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="L4" s="3">
         <v>300</v>
@@ -879,7 +863,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L5" s="3">
         <v>400</v>
@@ -887,7 +871,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="L6" s="3">
         <v>500</v>
@@ -895,7 +879,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L7" s="3">
         <v>600</v>
@@ -903,7 +887,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="L8" s="3">
         <v>700</v>
@@ -911,7 +895,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="L9" s="3">
         <v>800</v>
@@ -919,7 +903,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="L10" s="3">
         <v>900</v>
@@ -927,7 +911,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="L11" s="3">
         <v>1000</v>
@@ -935,7 +919,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="L12" s="3">
         <v>1001</v>
@@ -943,7 +927,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="L13" s="3">
         <v>1002</v>
@@ -951,7 +935,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="L14" s="3">
         <v>1003</v>
@@ -959,7 +943,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="L15" s="3">
         <v>1004</v>
@@ -967,7 +951,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="L16" s="3">
         <v>1005</v>
@@ -975,7 +959,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="L17" s="3">
         <v>1006</v>
@@ -983,7 +967,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="L18" s="3">
         <v>1007</v>
@@ -991,7 +975,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="L19" s="3">
         <v>1008</v>
@@ -999,7 +983,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="L20" s="3">
         <v>1009</v>
@@ -1007,7 +991,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L21" s="3">
         <v>1010</v>
@@ -1015,167 +999,110 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L22" s="3">
         <v>1011</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="L23" s="3">
         <v>1012</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="L24" s="3">
         <v>1013</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="L25" s="3">
         <v>1014</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="L26" s="3">
         <v>1015</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="L27" s="3">
         <v>1016</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="L28" s="3">
         <v>1017</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="L29" s="3">
         <v>1018</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="L30" s="3">
         <v>1019</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L31" s="3">
         <v>1020</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="L32" s="3">
         <v>1021</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="L33" s="3">
         <v>1022</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="L34" s="3">
         <v>1023</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="L35" s="3">
         <v>1024</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="L36" s="3">
         <v>1025</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="L37" s="3">
         <v>1026</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="L38" s="3">
         <v>1027</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="L39" s="3">
         <v>1028</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="L40" s="3">
         <v>1029</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="L41" s="3">
         <v>1030</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="L42" s="3">
         <v>1031</v>
@@ -1183,7 +1110,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="L43" s="3">
         <v>1032</v>
@@ -1191,7 +1118,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="L44" s="3">
         <v>1033</v>
@@ -1199,7 +1126,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="L45" s="3">
         <v>1034</v>
@@ -1207,7 +1134,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="L46" s="3">
         <v>1035</v>
@@ -1215,7 +1142,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="L47" s="3">
         <v>1036</v>
@@ -1223,7 +1150,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="L48" s="3">
         <v>1037</v>
@@ -1231,7 +1158,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="L49" s="3">
         <v>1038</v>
@@ -1239,7 +1166,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="L50" s="3">
         <v>1039</v>
@@ -1247,15 +1174,79 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="L51" s="3">
         <v>1040</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>80</v>
+      <c r="A52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" s="3">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L54" s="3">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L55" s="3">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L56" s="3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>Company Name</t>
   </si>
@@ -85,15 +85,9 @@
     <t>New</t>
   </si>
   <si>
-    <t>am-10088</t>
-  </si>
-  <si>
     <t>default</t>
   </si>
   <si>
-    <t>Lc-00252</t>
-  </si>
-  <si>
     <t>7010-EPF</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>Car</t>
   </si>
   <si>
-    <t>ddd - ddd</t>
-  </si>
-  <si>
     <t>sss - sss</t>
   </si>
   <si>
@@ -193,67 +184,106 @@
     <t>Auto-459</t>
   </si>
   <si>
-    <t>Auto-501</t>
-  </si>
-  <si>
-    <t>Auto-502</t>
-  </si>
-  <si>
-    <t>Auto-503</t>
-  </si>
-  <si>
-    <t>Auto-504</t>
-  </si>
-  <si>
-    <t>Auto-505</t>
-  </si>
-  <si>
-    <t>Auto-506</t>
-  </si>
-  <si>
-    <t>Auto-507</t>
-  </si>
-  <si>
-    <t>Auto-508</t>
-  </si>
-  <si>
-    <t>Auto-509</t>
-  </si>
-  <si>
-    <t>Auto-510</t>
-  </si>
-  <si>
-    <t>Auto-511</t>
-  </si>
-  <si>
-    <t>Auto-512</t>
-  </si>
-  <si>
-    <t>Auto-513</t>
-  </si>
-  <si>
-    <t>Auto-514</t>
-  </si>
-  <si>
-    <t>Auto-515</t>
-  </si>
-  <si>
-    <t>Auto-516</t>
-  </si>
-  <si>
-    <t>Auto-517</t>
-  </si>
-  <si>
-    <t>Auto-518</t>
-  </si>
-  <si>
-    <t>Auto-519</t>
-  </si>
-  <si>
-    <t>Auto-520</t>
-  </si>
-  <si>
-    <t>Auto-521</t>
+    <t>005162</t>
+  </si>
+  <si>
+    <t>lc-1</t>
+  </si>
+  <si>
+    <t>Contract1 - Contract1</t>
+  </si>
+  <si>
+    <t>Division1 - Division1</t>
+  </si>
+  <si>
+    <t>Auto-626</t>
+  </si>
+  <si>
+    <t>Auto-627</t>
+  </si>
+  <si>
+    <t>Auto-628</t>
+  </si>
+  <si>
+    <t>Auto-629</t>
+  </si>
+  <si>
+    <t>Auto-630</t>
+  </si>
+  <si>
+    <t>Auto-631</t>
+  </si>
+  <si>
+    <t>Auto-632</t>
+  </si>
+  <si>
+    <t>Auto-633</t>
+  </si>
+  <si>
+    <t>Auto-634</t>
+  </si>
+  <si>
+    <t>Auto-635</t>
+  </si>
+  <si>
+    <t>Auto-636</t>
+  </si>
+  <si>
+    <t>Auto-637</t>
+  </si>
+  <si>
+    <t>Auto-638</t>
+  </si>
+  <si>
+    <t>Auto-639</t>
+  </si>
+  <si>
+    <t>Auto-640</t>
+  </si>
+  <si>
+    <t>Lease Billing Type</t>
+  </si>
+  <si>
+    <t>Lease Frequency</t>
+  </si>
+  <si>
+    <t>Lease Rental</t>
+  </si>
+  <si>
+    <t>Receipt Amount</t>
+  </si>
+  <si>
+    <t>Lease Term</t>
+  </si>
+  <si>
+    <t>Arrears</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>Advance EOM</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Semi-Annually</t>
+  </si>
+  <si>
+    <t>Auto-641</t>
+  </si>
+  <si>
+    <t>Annually</t>
+  </si>
+  <si>
+    <t>Auto-645</t>
+  </si>
+  <si>
+    <t>Auto-647</t>
   </si>
 </sst>
 </file>
@@ -703,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -720,10 +750,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,9 +767,14 @@
     <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -774,184 +809,360 @@
         <v>17</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="1">
+        <v>36</v>
+      </c>
+      <c r="P2" s="1">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" s="1">
+        <v>12</v>
+      </c>
+      <c r="P3" s="1">
+        <v>320</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" s="1">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1">
+        <v>620</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1300</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="1">
+        <v>36</v>
+      </c>
+      <c r="P6" s="1">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="L4" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="3">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="L9" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L10" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L11" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L12" s="3">
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L13" s="3">
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L14" s="3">
         <v>1003</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L15" s="3">
         <v>1004</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L16" s="3">
         <v>1005</v>
@@ -959,7 +1170,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L17" s="3">
         <v>1006</v>
@@ -967,7 +1178,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="L18" s="3">
         <v>1007</v>
@@ -975,7 +1186,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L19" s="3">
         <v>1008</v>
@@ -983,7 +1194,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L20" s="3">
         <v>1009</v>
@@ -991,7 +1202,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="L21" s="3">
         <v>1010</v>
@@ -999,7 +1210,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L22" s="3">
         <v>1011</v>
@@ -1102,7 +1313,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L42" s="3">
         <v>1031</v>
@@ -1110,7 +1321,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L43" s="3">
         <v>1032</v>
@@ -1118,7 +1329,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L44" s="3">
         <v>1033</v>
@@ -1126,7 +1337,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L45" s="3">
         <v>1034</v>
@@ -1134,7 +1345,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L46" s="3">
         <v>1035</v>
@@ -1142,7 +1353,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L47" s="3">
         <v>1036</v>
@@ -1150,7 +1361,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L48" s="3">
         <v>1037</v>
@@ -1158,7 +1369,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L49" s="3">
         <v>1038</v>
@@ -1166,7 +1377,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L50" s="3">
         <v>1039</v>
@@ -1174,7 +1385,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L51" s="3">
         <v>1040</v>
@@ -1182,7 +1393,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L52" s="3">
         <v>1041</v>
@@ -1190,7 +1401,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L53" s="3">
         <v>1042</v>
@@ -1198,7 +1409,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L54" s="3">
         <v>1043</v>
@@ -1206,7 +1417,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L55" s="3">
         <v>1044</v>
@@ -1214,7 +1425,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L56" s="3">
         <v>1045</v>
@@ -1222,7 +1433,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L57" s="3">
         <v>1046</v>
@@ -1230,7 +1441,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L58" s="3">
         <v>1047</v>
@@ -1238,7 +1449,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L59" s="3">
         <v>1048</v>
@@ -1246,7 +1457,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1273,24 +1484,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>Company Name</t>
   </si>
@@ -127,63 +127,6 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>Auto-441</t>
-  </si>
-  <si>
-    <t>Auto-442</t>
-  </si>
-  <si>
-    <t>Auto-443</t>
-  </si>
-  <si>
-    <t>Auto-444</t>
-  </si>
-  <si>
-    <t>Auto-445</t>
-  </si>
-  <si>
-    <t>Auto-446</t>
-  </si>
-  <si>
-    <t>Auto-447</t>
-  </si>
-  <si>
-    <t>Auto-448</t>
-  </si>
-  <si>
-    <t>Auto-449</t>
-  </si>
-  <si>
-    <t>Auto-450</t>
-  </si>
-  <si>
-    <t>Auto-451</t>
-  </si>
-  <si>
-    <t>Auto-452</t>
-  </si>
-  <si>
-    <t>Auto-453</t>
-  </si>
-  <si>
-    <t>Auto-454</t>
-  </si>
-  <si>
-    <t>Auto-455</t>
-  </si>
-  <si>
-    <t>Auto-456</t>
-  </si>
-  <si>
-    <t>Auto-457</t>
-  </si>
-  <si>
-    <t>Auto-458</t>
-  </si>
-  <si>
-    <t>Auto-459</t>
-  </si>
-  <si>
     <t>005162</t>
   </si>
   <si>
@@ -196,51 +139,6 @@
     <t>Division1 - Division1</t>
   </si>
   <si>
-    <t>Auto-626</t>
-  </si>
-  <si>
-    <t>Auto-627</t>
-  </si>
-  <si>
-    <t>Auto-628</t>
-  </si>
-  <si>
-    <t>Auto-629</t>
-  </si>
-  <si>
-    <t>Auto-630</t>
-  </si>
-  <si>
-    <t>Auto-631</t>
-  </si>
-  <si>
-    <t>Auto-632</t>
-  </si>
-  <si>
-    <t>Auto-633</t>
-  </si>
-  <si>
-    <t>Auto-634</t>
-  </si>
-  <si>
-    <t>Auto-635</t>
-  </si>
-  <si>
-    <t>Auto-636</t>
-  </si>
-  <si>
-    <t>Auto-637</t>
-  </si>
-  <si>
-    <t>Auto-638</t>
-  </si>
-  <si>
-    <t>Auto-639</t>
-  </si>
-  <si>
-    <t>Auto-640</t>
-  </si>
-  <si>
     <t>Lease Billing Type</t>
   </si>
   <si>
@@ -274,16 +172,25 @@
     <t>Semi-Annually</t>
   </si>
   <si>
-    <t>Auto-641</t>
-  </si>
-  <si>
     <t>Annually</t>
   </si>
   <si>
-    <t>Auto-645</t>
-  </si>
-  <si>
-    <t>Auto-647</t>
+    <t>Demo-10</t>
+  </si>
+  <si>
+    <t>Demo-11</t>
+  </si>
+  <si>
+    <t>Demo-12</t>
+  </si>
+  <si>
+    <t>Demo-13</t>
+  </si>
+  <si>
+    <t>Demo-14</t>
+  </si>
+  <si>
+    <t>Demo-50</t>
   </si>
 </sst>
 </file>
@@ -750,10 +657,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,24 +719,24 @@
         <v>32</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -838,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>19</v>
@@ -847,13 +754,13 @@
         <v>24</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>20</v>
@@ -865,10 +772,10 @@
         <v>3600</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1">
         <v>36</v>
@@ -882,7 +789,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -891,7 +798,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>19</v>
@@ -900,13 +807,13 @@
         <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -918,10 +825,10 @@
         <v>3600</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="O3" s="1">
         <v>12</v>
@@ -935,7 +842,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -944,7 +851,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>19</v>
@@ -953,13 +860,13 @@
         <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
@@ -971,10 +878,10 @@
         <v>3600</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="O4" s="1">
         <v>6</v>
@@ -988,7 +895,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -997,7 +904,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
@@ -1006,13 +913,13 @@
         <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
@@ -1024,10 +931,10 @@
         <v>3600</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="O5" s="1">
         <v>3</v>
@@ -1039,7 +946,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -1048,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1057,13 +964,13 @@
         <v>24</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
@@ -1075,389 +982,70 @@
         <v>3600</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="O6" s="1">
         <v>36</v>
       </c>
       <c r="P6" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="L7" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="3">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L23" s="3">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L24" s="3">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="3">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="3">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="3">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="3">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="3">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="3">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="3">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="3">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="3">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="3">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L35" s="3">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="3">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L37" s="3">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L38" s="3">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="3">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="3">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="3">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="M7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="1">
         <v>36</v>
       </c>
-      <c r="L45" s="3">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L50" s="3">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L51" s="3">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L52" s="3">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L53" s="3">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L55" s="3">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L56" s="3">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>51</v>
+      <c r="P7" s="1">
+        <v>110</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amar\Automation\MyFirstAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amar\Automation\MyFirstAutomation-Backup\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -175,22 +175,22 @@
     <t>Annually</t>
   </si>
   <si>
-    <t>Demo-10</t>
-  </si>
-  <si>
-    <t>Demo-11</t>
-  </si>
-  <si>
-    <t>Demo-12</t>
-  </si>
-  <si>
-    <t>Demo-13</t>
-  </si>
-  <si>
-    <t>Demo-14</t>
-  </si>
-  <si>
-    <t>Demo-50</t>
+    <t>Demo-303</t>
+  </si>
+  <si>
+    <t>Demo-304</t>
+  </si>
+  <si>
+    <t>Demo-305</t>
+  </si>
+  <si>
+    <t>Demo-306</t>
+  </si>
+  <si>
+    <t>Demo-307</t>
+  </si>
+  <si>
+    <t>Demo-308</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amar\Automation\MyFirstAutomation-Backup\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\amar\OdessaAutomationDemo\LeaseWave4.0AutomationFrameWorkDemo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -175,22 +175,22 @@
     <t>Annually</t>
   </si>
   <si>
-    <t>Demo-303</t>
-  </si>
-  <si>
-    <t>Demo-304</t>
-  </si>
-  <si>
-    <t>Demo-305</t>
-  </si>
-  <si>
-    <t>Demo-306</t>
-  </si>
-  <si>
-    <t>Demo-307</t>
-  </si>
-  <si>
-    <t>Demo-308</t>
+    <t>Demo-322</t>
+  </si>
+  <si>
+    <t>Demo-323</t>
+  </si>
+  <si>
+    <t>Demo-324</t>
+  </si>
+  <si>
+    <t>Demo-325</t>
+  </si>
+  <si>
+    <t>Demo-326</t>
+  </si>
+  <si>
+    <t>Demo-327</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Input.xlsx
+++ b/TestData/Input.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="53">
   <si>
     <t>Company Name</t>
   </si>
@@ -175,22 +175,16 @@
     <t>Annually</t>
   </si>
   <si>
-    <t>Demo-322</t>
-  </si>
-  <si>
-    <t>Demo-323</t>
-  </si>
-  <si>
-    <t>Demo-324</t>
-  </si>
-  <si>
-    <t>Demo-325</t>
-  </si>
-  <si>
-    <t>Demo-326</t>
-  </si>
-  <si>
-    <t>Demo-327</t>
+    <t>ode-66</t>
+  </si>
+  <si>
+    <t>ode-67</t>
+  </si>
+  <si>
+    <t>ode-68</t>
+  </si>
+  <si>
+    <t>ode-69</t>
   </si>
 </sst>
 </file>
@@ -660,7 +654,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,8 +729,9 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
+      <c r="A2" s="1" t="str">
+        <f>A7</f>
+        <v>ode-69</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -788,8 +783,9 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
+      <c r="A3" s="1" t="str">
+        <f>A7</f>
+        <v>ode-69</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>22</v>
@@ -842,7 +838,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
@@ -895,7 +891,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>22</v>
@@ -946,7 +942,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>22</v>
@@ -991,13 +987,13 @@
         <v>36</v>
       </c>
       <c r="P6" s="1">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
